--- a/Assets/Excel/card.xlsx
+++ b/Assets/Excel/card.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\unity-roglike\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BB90666-1AFB-4B21-B606-3A0F8658619E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA11DAD4-AE3F-40CD-AE6C-27605BB53C69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="760" yWindow="760" windowWidth="19200" windowHeight="9970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -99,9 +99,6 @@
     <t>杀</t>
   </si>
   <si>
-    <t>AttackCardItem</t>
-  </si>
-  <si>
     <t>对单个敌人进行{0}点的伤害</t>
   </si>
   <si>
@@ -111,9 +108,6 @@
     <t>闪</t>
   </si>
   <si>
-    <t>DefendCard</t>
-  </si>
-  <si>
     <t>增加{0}点护盾</t>
   </si>
   <si>
@@ -135,9 +129,6 @@
     <t>酒</t>
   </si>
   <si>
-    <t>AttackUpCard</t>
-  </si>
-  <si>
     <t>使下一次伤害变为{0}倍</t>
   </si>
   <si>
@@ -170,6 +161,18 @@
   </si>
   <si>
     <t>Image/Other/crystal_01j</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DefenseCard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffCard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackCard</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -543,7 +546,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -629,20 +632,20 @@
       <c r="B3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>21</v>
+      <c r="C3" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="D3" s="1">
         <v>10001</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H3" s="1">
         <v>1</v>
@@ -651,7 +654,7 @@
         <v>3</v>
       </c>
       <c r="J3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -659,22 +662,22 @@
         <v>1001</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="D4" s="1">
         <v>10002</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="H4" s="1">
         <v>1</v>
@@ -683,7 +686,7 @@
         <v>2</v>
       </c>
       <c r="J4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -691,22 +694,22 @@
         <v>1002</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D5" s="1">
         <v>10003</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="H5" s="1">
         <v>0</v>
@@ -715,7 +718,7 @@
         <v>2</v>
       </c>
       <c r="J5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -723,22 +726,22 @@
         <v>1003</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" t="s">
-        <v>33</v>
+        <v>30</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="D6" s="1">
         <v>10004</v>
       </c>
       <c r="E6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H6" s="1">
         <v>1</v>
@@ -747,7 +750,7 @@
         <v>2</v>
       </c>
       <c r="J6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/card.xlsx
+++ b/Assets/Excel/card.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\unity-roglike\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA11DAD4-AE3F-40CD-AE6C-27605BB53C69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4FFA575-2A84-4321-B783-F4F70EA88259}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="760" windowWidth="19200" windowHeight="9970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2900" yWindow="1650" windowWidth="19200" windowHeight="9970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="78">
   <si>
     <t>Id</t>
   </si>
@@ -63,9 +63,6 @@
     <t>Arg0</t>
   </si>
   <si>
-    <t>Effects</t>
-  </si>
-  <si>
     <t>唯一的标识（不能重复）</t>
   </si>
   <si>
@@ -93,86 +90,242 @@
     <t>属性值</t>
   </si>
   <si>
-    <t>特效</t>
-  </si>
-  <si>
-    <t>杀</t>
-  </si>
-  <si>
-    <t>对单个敌人进行{0}点的伤害</t>
-  </si>
-  <si>
-    <t>Effects/GreenBloodExplosion</t>
-  </si>
-  <si>
-    <t>闪</t>
+    <t>AddCard</t>
+  </si>
+  <si>
+    <t>Image/Cardbackground/BlueCard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/Cardbackground/GreenCard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/Cardbackground/RedCard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/Cardbackground/GreyCard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/Other/armor_01a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/Other/coin_05d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/Other/sword_03e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DefenseCard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffCard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackCard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/Other/spellbook_03e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通防御</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>振奋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>舍命一击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治疗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御架势</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>迅捷步伐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快速躲避</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>疾行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怒吼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钢剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>木剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>板斧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血药</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>压缩饼干</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钢盾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>木盾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斗篷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>号角</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鼓舞旗帜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成{0}点伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恢复{0}点生命</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>增加{0}点护盾</t>
-  </si>
-  <si>
-    <t>Effects/SpinZoneBlue</t>
-  </si>
-  <si>
-    <t>无中生有</t>
-  </si>
-  <si>
-    <t>AddCard</t>
-  </si>
-  <si>
-    <t>从卡组中抽出{0}张卡片</t>
-  </si>
-  <si>
-    <t>Effects/SmokeExplosionDark</t>
-  </si>
-  <si>
-    <t>酒</t>
-  </si>
-  <si>
-    <t>使下一次伤害变为{0}倍</t>
-  </si>
-  <si>
-    <t>Image/Cardbackground/BlueCard</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image/Cardbackground/GreenCard</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image/Cardbackground/RedCard</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image/Cardbackground/GreyCard</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image/Other/armor_01a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image/Other/coin_05d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image/Other/sword_03e</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image/Other/crystal_01j</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DefenseCard</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BuffCard</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AttackCard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得{0}点护盾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽一张牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得2点力量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>摸两张牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得{0}点力量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arg1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性值2（对自己）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackWeapon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FoodCard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DefenseWeapon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddItem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffItem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HealCard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/Other/boots_01a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/Other/book_02f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/Other/bow_01a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>强弓连射</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/Other/arrow_03e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/Other/potion_01a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/Other/stoneblock_01a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得4点护盾，抽1张牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成{0}点伤害,扣除2点生命值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扣除2点生命值，抽两张牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成5点伤害，获得3点力量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -180,7 +333,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -202,6 +355,13 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -226,7 +386,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -238,6 +398,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -543,10 +706,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -555,7 +718,8 @@
     <col min="2" max="2" width="10.54296875" customWidth="1"/>
     <col min="3" max="3" width="22.1796875" customWidth="1"/>
     <col min="4" max="4" width="13.90625" customWidth="1"/>
-    <col min="5" max="6" width="20.81640625" customWidth="1"/>
+    <col min="5" max="5" width="20.81640625" customWidth="1"/>
+    <col min="6" max="6" width="32.54296875" customWidth="1"/>
     <col min="7" max="7" width="14.81640625" customWidth="1"/>
     <col min="8" max="8" width="10.54296875" customWidth="1"/>
     <col min="10" max="10" width="16.81640625" customWidth="1"/>
@@ -589,40 +753,40 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
-        <v>9</v>
+      <c r="J1" s="1" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" t="s">
-        <v>19</v>
+      <c r="J2" s="2" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -630,127 +794,673 @@
         <v>1000</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="D3" s="1">
         <v>10001</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>21</v>
+      <c r="E3" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="H3" s="1">
         <v>1</v>
       </c>
       <c r="I3" s="1">
-        <v>3</v>
-      </c>
-      <c r="J3" t="s">
-        <v>22</v>
+        <v>5</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D4" s="1">
-        <v>10002</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>24</v>
+        <v>10001</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>36</v>
+        <v>19</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>71</v>
       </c>
       <c r="H4" s="1">
         <v>1</v>
       </c>
       <c r="I4" s="1">
-        <v>2</v>
-      </c>
-      <c r="J4" t="s">
-        <v>25</v>
+        <v>9</v>
+      </c>
+      <c r="J4" s="1">
+        <v>-2</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1002</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>27</v>
+      <c r="B5" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="D5" s="1">
-        <v>10003</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>28</v>
+        <v>10001</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>37</v>
+        <v>19</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>69</v>
       </c>
       <c r="H5" s="1">
+        <v>1</v>
+      </c>
+      <c r="I5" s="1">
+        <v>7</v>
+      </c>
+      <c r="J5" s="1">
         <v>0</v>
-      </c>
-      <c r="I5" s="1">
-        <v>2</v>
-      </c>
-      <c r="J5" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>1003</v>
-      </c>
-      <c r="B6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="3" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="1">
+        <v>10010</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>1001</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="1">
+        <v>10002</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>1005</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="1">
+        <v>10002</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>1006</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="1">
+        <v>10003</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <v>1</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>1007</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="1">
+        <v>10003</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1</v>
+      </c>
+      <c r="I10" s="1">
+        <v>1</v>
+      </c>
+      <c r="J10" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>1008</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="1">
+        <v>10003</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1</v>
+      </c>
+      <c r="I11" s="1">
+        <v>2</v>
+      </c>
+      <c r="J11" s="1">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>1009</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="1">
+        <v>10004</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" s="1">
+        <v>1</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0</v>
+      </c>
+      <c r="J12" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="27" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>1010</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="1">
+        <v>10001</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H13" s="1">
+        <v>2</v>
+      </c>
+      <c r="I13" s="1">
+        <v>5</v>
+      </c>
+      <c r="J13" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>1011</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" s="1">
+        <v>10005</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" s="1">
+        <v>1</v>
+      </c>
+      <c r="I14" s="1">
+        <v>8</v>
+      </c>
+      <c r="J14" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>1012</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="1">
-        <v>10004</v>
-      </c>
-      <c r="E6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H6" s="1">
-        <v>1</v>
-      </c>
-      <c r="I6" s="1">
+      <c r="C15" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="1">
+        <v>10005</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0</v>
+      </c>
+      <c r="I15" s="1">
+        <v>4</v>
+      </c>
+      <c r="J15" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>1013</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" s="1">
+        <v>10005</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H16" s="1">
         <v>2</v>
       </c>
-      <c r="J6" t="s">
-        <v>25</v>
+      <c r="I16" s="1">
+        <v>13</v>
+      </c>
+      <c r="J16" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>1014</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" s="1">
+        <v>10006</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H17" s="1">
+        <v>1</v>
+      </c>
+      <c r="I17" s="1">
+        <v>8</v>
+      </c>
+      <c r="J17" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>1015</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" s="1">
+        <v>10006</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0</v>
+      </c>
+      <c r="I18" s="1">
+        <v>4</v>
+      </c>
+      <c r="J18" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>1016</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" s="1">
+        <v>10006</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0</v>
+      </c>
+      <c r="I19" s="1">
+        <v>6</v>
+      </c>
+      <c r="J19" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>1017</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" s="1">
+        <v>10007</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H20" s="1">
+        <v>1</v>
+      </c>
+      <c r="I20" s="1">
+        <v>8</v>
+      </c>
+      <c r="J20" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>1018</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" s="1">
+        <v>10007</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0</v>
+      </c>
+      <c r="I21" s="1">
+        <v>4</v>
+      </c>
+      <c r="J21" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>1019</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" s="1">
+        <v>10008</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H22" s="1">
+        <v>1</v>
+      </c>
+      <c r="I22" s="1">
+        <v>2</v>
+      </c>
+      <c r="J22" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>1020</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D23" s="1">
+        <v>10009</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H23" s="1">
+        <v>1</v>
+      </c>
+      <c r="I23" s="1">
+        <v>3</v>
+      </c>
+      <c r="J23" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>1021</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D24" s="1">
+        <v>10009</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H24" s="1">
+        <v>1</v>
+      </c>
+      <c r="I24" s="1">
+        <v>2</v>
+      </c>
+      <c r="J24" s="1">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/card.xlsx
+++ b/Assets/Excel/card.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\unity-roglike\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4FFA575-2A84-4321-B783-F4F70EA88259}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60C88D3E-4D6A-43B1-8ED6-C3B5898AABB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2900" yWindow="1650" windowWidth="19200" windowHeight="9970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2470" yWindow="1420" windowWidth="19200" windowHeight="9970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="91">
   <si>
     <t>Id</t>
   </si>
@@ -185,10 +185,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>板斧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>血药</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -209,18 +205,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>斗篷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>号角</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鼓舞旗帜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>造成{0}点伤害</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -245,14 +229,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>摸两张牌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得{0}点力量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Arg1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -326,6 +302,82 @@
   </si>
   <si>
     <t>造成5点伤害，获得3点力量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/Cardbackground/PinkCard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/Other/sword_01a 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/Other/sword_01a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>棍子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/Other/wood_01a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/Other/staff_01a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/Other/shard_01a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/Other/crystal_01j</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/Other/scroll_01a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卷轴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/Other/ring_01a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>戒指</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/Other/book_01g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鼓舞秘籍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成{0}点伤害，耐久{1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恢复{0}点生命，耐久{1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加{0}点护盾，耐久{1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>摸两张牌，耐久{1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得{0}点力量，耐久{1}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -708,8 +760,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -754,7 +806,7 @@
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -786,7 +838,7 @@
         <v>17</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -803,7 +855,7 @@
         <v>10001</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>19</v>
@@ -835,13 +887,13 @@
         <v>10001</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="H4" s="1">
         <v>1</v>
@@ -858,7 +910,7 @@
         <v>1002</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>28</v>
@@ -867,13 +919,13 @@
         <v>10001</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="H5" s="1">
         <v>1</v>
@@ -893,19 +945,19 @@
         <v>34</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D6" s="1">
         <v>10010</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="H6" s="1">
         <v>1</v>
@@ -931,7 +983,7 @@
         <v>10002</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>20</v>
@@ -963,13 +1015,13 @@
         <v>10002</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="H8" s="1">
         <v>1</v>
@@ -995,13 +1047,13 @@
         <v>10003</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="H9" s="1">
         <v>0</v>
@@ -1027,13 +1079,13 @@
         <v>10003</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="H10" s="1">
         <v>1</v>
@@ -1059,13 +1111,13 @@
         <v>10003</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="H11" s="1">
         <v>1</v>
@@ -1091,7 +1143,7 @@
         <v>10004</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>22</v>
@@ -1123,13 +1175,13 @@
         <v>10001</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>19</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="H13" s="1">
         <v>2</v>
@@ -1149,16 +1201,19 @@
         <v>40</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D14" s="1">
         <v>10005</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>51</v>
+      <c r="E14" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>19</v>
+        <v>72</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>73</v>
       </c>
       <c r="H14" s="1">
         <v>1</v>
@@ -1178,16 +1233,19 @@
         <v>41</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D15" s="1">
         <v>10005</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>51</v>
+      <c r="E15" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>19</v>
+        <v>72</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="H15" s="1">
         <v>0</v>
@@ -1203,20 +1261,23 @@
       <c r="A16" s="1">
         <v>1013</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>42</v>
+      <c r="B16" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D16" s="1">
         <v>10005</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>51</v>
+      <c r="E16" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>19</v>
+        <v>72</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>77</v>
       </c>
       <c r="H16" s="1">
         <v>2</v>
@@ -1233,19 +1294,22 @@
         <v>1014</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D17" s="1">
         <v>10006</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>52</v>
+      <c r="E17" s="2" t="s">
+        <v>87</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>20</v>
+        <v>72</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>66</v>
       </c>
       <c r="H17" s="1">
         <v>1</v>
@@ -1262,19 +1326,22 @@
         <v>1015</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D18" s="1">
         <v>10006</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>52</v>
+      <c r="E18" s="2" t="s">
+        <v>87</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>20</v>
+        <v>72</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>76</v>
       </c>
       <c r="H18" s="1">
         <v>0</v>
@@ -1291,19 +1358,19 @@
         <v>1016</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D19" s="1">
         <v>10006</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>20</v>
+        <v>72</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>24</v>
@@ -1323,19 +1390,22 @@
         <v>1017</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D20" s="1">
         <v>10007</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>53</v>
+      <c r="E20" s="2" t="s">
+        <v>88</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>20</v>
+        <v>72</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>79</v>
       </c>
       <c r="H20" s="1">
         <v>1</v>
@@ -1352,19 +1422,22 @@
         <v>1018</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D21" s="1">
         <v>10007</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>53</v>
+      <c r="E21" s="2" t="s">
+        <v>88</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>20</v>
+        <v>72</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>78</v>
       </c>
       <c r="H21" s="1">
         <v>0</v>
@@ -1380,20 +1453,23 @@
       <c r="A22" s="1">
         <v>1019</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>48</v>
+      <c r="B22" s="2" t="s">
+        <v>81</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D22" s="1">
         <v>10008</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>57</v>
+      <c r="E22" s="2" t="s">
+        <v>89</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>21</v>
+        <v>72</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="H22" s="1">
         <v>1</v>
@@ -1409,20 +1485,23 @@
       <c r="A23" s="1">
         <v>1020</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>49</v>
+      <c r="B23" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D23" s="1">
         <v>10009</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>22</v>
+      <c r="E23" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>82</v>
       </c>
       <c r="H23" s="1">
         <v>1</v>
@@ -1438,20 +1517,23 @@
       <c r="A24" s="1">
         <v>1021</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>50</v>
+      <c r="B24" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D24" s="1">
         <v>10009</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>22</v>
+      <c r="E24" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>84</v>
       </c>
       <c r="H24" s="1">
         <v>1</v>
